--- a/DoAnHTTT/src/main/webapp/File/Professor.xlsx
+++ b/DoAnHTTT/src/main/webapp/File/Professor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\TemplateProjectPTTKHT-main\TemplateProjectPTTKHT-main\DoAnHTTT\src\main\webapp\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TemplateProjectPTTKHT\DoAnHTTT\src\main\webapp\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>ID_Professor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Professor_Name</t>
   </si>
@@ -45,12 +42,6 @@
   </si>
   <si>
     <t>Tiến Sĩ</t>
-  </si>
-  <si>
-    <t>"305"</t>
-  </si>
-  <si>
-    <t>"310"</t>
   </si>
 </sst>
 </file>
@@ -86,9 +77,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,7 +373,7 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,13 +383,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -407,22 +394,16 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/DoAnHTTT/src/main/webapp/File/Professor.xlsx
+++ b/DoAnHTTT/src/main/webapp/File/Professor.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TemplateProjectPTTKHT\DoAnHTTT\src\main\webapp\File\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{334E05A1-4D1E-49EC-99A9-E6C49B39DB4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9330"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="20520" windowHeight="12684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,22 +355,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,7 +381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -395,7 +392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
